--- a/Modèle/STATS_MODELE.xlsx
+++ b/Modèle/STATS_MODELE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Swish Swish\UNRIVALED_STATS_PLAYER\Modèle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D1C5A3-B3ED-408E-887D-CE9B962F6796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD42886-AA8A-427E-B8B0-634D6E2ECE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXP" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="VINYL" sheetId="16" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ADVANCED!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ADVANCED!$A$2:$K$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PER_GAME_BASIC!$A$2:$BN$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TOTAL_BASIC!$A$2:$U$2</definedName>
   </definedNames>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="68">
   <si>
     <t>TOTAL_BASIC</t>
   </si>
@@ -251,6 +251,12 @@
   <si>
     <t>TOV%</t>
   </si>
+  <si>
+    <t>AST% : TOV%</t>
+  </si>
+  <si>
+    <t>AST:TOV</t>
+  </si>
 </sst>
 </file>
 
@@ -278,6 +284,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,12 +292,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -367,9 +376,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -603,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1705,7 +1711,12 @@
       <c r="U1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -1755,6 +1766,14 @@
         <f>S2/T2</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="V2" s="9" t="e">
+        <f>100*Q2/(F2+0.44*J2+Q2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W2" s="9" t="e">
+        <f>IF(V2=0,0,S2/V2)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -1787,6 +1806,14 @@
         <f t="shared" ref="U3:U13" si="2">S3/T3</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="V3" s="9" t="e">
+        <f t="shared" ref="V3:V13" si="3">100*Q3/(F3+0.44*J3+Q3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W3" s="9" t="e">
+        <f t="shared" ref="W3:W13" si="4">IF(V3=0,0,S3/V3)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -1819,6 +1846,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V4" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W4" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -1851,6 +1886,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V5" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W5" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -1883,6 +1926,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V6" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W6" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -1915,6 +1966,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V7" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W7" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S8" s="9" t="e">
@@ -1929,6 +1988,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V8" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S9" s="9" t="e">
@@ -1943,6 +2010,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V9" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S10" s="9" t="e">
@@ -1957,6 +2032,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V10" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S11" s="9" t="e">
@@ -1971,6 +2054,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V11" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S12" s="9" t="e">
@@ -1985,6 +2076,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V12" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S13" s="9" t="e">
@@ -1999,6 +2098,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V13" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2009,67 +2116,67 @@
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:R15" si="3">SUM(C2:C13)</f>
+        <f t="shared" ref="C15:R15" si="5">SUM(C2:C13)</f>
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2158,7 +2265,12 @@
       <c r="U1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -2208,6 +2320,14 @@
         <f>S2/T2</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="V2" s="9" t="e">
+        <f>100*Q2/(F2+0.44*J2+Q2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W2" s="9" t="e">
+        <f>IF(V2=0,0,S2/V2)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -2240,6 +2360,14 @@
         <f t="shared" ref="U3:U13" si="2">S3/T3</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="V3" s="9" t="e">
+        <f t="shared" ref="V3:V13" si="3">100*Q3/(F3+0.44*J3+Q3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W3" s="9" t="e">
+        <f t="shared" ref="W3:W13" si="4">IF(V3=0,0,S3/V3)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -2272,6 +2400,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V4" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W4" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -2304,6 +2440,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V5" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W5" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -2336,6 +2480,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V6" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W6" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -2368,6 +2520,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V7" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W7" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S8" s="9" t="e">
@@ -2382,6 +2542,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V8" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S9" s="9" t="e">
@@ -2396,6 +2564,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V9" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S10" s="9" t="e">
@@ -2410,6 +2586,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V10" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S11" s="9" t="e">
@@ -2424,6 +2608,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V11" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S12" s="9" t="e">
@@ -2438,6 +2630,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V12" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S13" s="9" t="e">
@@ -2452,6 +2652,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V13" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2462,67 +2670,67 @@
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:R15" si="3">SUM(C2:C13)</f>
+        <f t="shared" ref="C15:R15" si="5">SUM(C2:C13)</f>
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2611,7 +2819,12 @@
       <c r="U1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -2661,6 +2874,14 @@
         <f>S2/T2</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="V2" s="9" t="e">
+        <f>100*Q2/(F2+0.44*J2+Q2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W2" s="9" t="e">
+        <f>IF(V2=0,0,S2/V2)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -2693,6 +2914,14 @@
         <f t="shared" ref="U3:U13" si="2">S3/T3</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="V3" s="9" t="e">
+        <f t="shared" ref="V3:V13" si="3">100*Q3/(F3+0.44*J3+Q3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W3" s="9" t="e">
+        <f t="shared" ref="W3:W13" si="4">IF(V3=0,0,S3/V3)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -2725,6 +2954,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V4" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W4" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -2757,6 +2994,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V5" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W5" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -2789,6 +3034,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V6" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W6" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -2821,6 +3074,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V7" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W7" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S8" s="9" t="e">
@@ -2835,6 +3096,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V8" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S9" s="9" t="e">
@@ -2849,6 +3118,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V9" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S10" s="9" t="e">
@@ -2863,6 +3140,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V10" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S11" s="9" t="e">
@@ -2877,6 +3162,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V11" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S12" s="9" t="e">
@@ -2891,6 +3184,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V12" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S13" s="9" t="e">
@@ -2905,6 +3206,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V13" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2915,67 +3224,67 @@
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:R15" si="3">SUM(C2:C13)</f>
+        <f t="shared" ref="C15:R15" si="5">SUM(C2:C13)</f>
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2992,7 +3301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3007,29 +3316,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
     </row>
     <row r="2" spans="1:21" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4915,7 +5224,7 @@
       <selection activeCell="G3" sqref="G3:I3"/>
       <selection pane="topRight" activeCell="G3" sqref="G3:I3"/>
       <selection pane="bottomLeft" activeCell="G3" sqref="G3:I3"/>
-      <selection pane="bottomRight" sqref="A1:AI1"/>
+      <selection pane="bottomRight" sqref="A1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4930,75 +5239,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
       <c r="AJ1" s="15"/>
-      <c r="AM1" s="17" t="s">
+      <c r="AM1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="17"/>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
-      <c r="BF1" s="17"/>
-      <c r="BG1" s="17"/>
-      <c r="BH1" s="17"/>
-      <c r="BI1" s="17"/>
-      <c r="BJ1" s="17"/>
-      <c r="BK1" s="17"/>
-      <c r="BL1" s="17"/>
-      <c r="BM1" s="17"/>
-      <c r="BN1" s="17"/>
-      <c r="BO1" s="17"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
     </row>
     <row r="2" spans="1:67" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -5385,7 +5694,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="BN3" s="4" t="e">
-        <f t="shared" ref="BN3:BO49" si="27">(PERCENTRANK(AI$3:AI$78,AI3))*100</f>
+        <f t="shared" ref="BN3:BN49" si="27">(PERCENTRANK(AI$3:AI$78,AI3))*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BO3" s="4" t="e">
@@ -14520,8 +14829,8 @@
   </sheetData>
   <autoFilter ref="A2:BN2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:AI1"/>
     <mergeCell ref="AM1:BO1"/>
+    <mergeCell ref="A1:AJ1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C78">
     <cfRule type="colorScale" priority="67">
@@ -14883,6 +15192,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AI3:AI78">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AJ78">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -15207,18 +15528,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO3:BO78">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="BN3:BN78">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -15231,14 +15540,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI3:AI78">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="BO3:BO78">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="0"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -15252,35 +15561,39 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC38280-09A5-405D-93E7-135B8E0A1F5F}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:D1"/>
+      <selection pane="bottomRight" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="9" width="11.7109375" customWidth="1"/>
+    <col min="2" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="G1" s="18" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="I1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -15293,1008 +15606,1468 @@
       <c r="D2" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="E2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="6"/>
-      <c r="G3" s="4" t="e">
+      <c r="I3" s="4" t="e">
         <f>(PERCENTRANK(B$3:B$49,B3))*100</f>
         <v>#N/A</v>
       </c>
-      <c r="H3" s="4" t="e">
-        <f t="shared" ref="H3:I18" si="0">(PERCENTRANK(C$3:C$49,C3))*100</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I3" s="4" t="e">
+      <c r="J3" s="4" t="e">
+        <f t="shared" ref="J3:K18" si="0">(PERCENTRANK(C$3:C$49,C3))*100</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K3" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L3" s="4" t="e">
+        <f>100-((PERCENTRANK(E$3:E$49,E3))*100)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M3" s="4" t="e">
+        <f>(PERCENTRANK(F$3:F$49,F3))*100</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="6"/>
-      <c r="G4" s="4" t="e">
-        <f t="shared" ref="G4:I49" si="1">(PERCENTRANK(B$3:B$49,B4))*100</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H4" s="4" t="e">
+      <c r="I4" s="4" t="e">
+        <f t="shared" ref="I4:K49" si="1">(PERCENTRANK(B$3:B$49,B4))*100</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J4" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="I4" s="4" t="e">
+      <c r="K4" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4" s="4" t="e">
+        <f t="shared" ref="L4:L49" si="2">100-((PERCENTRANK(E$3:E$49,E4))*100)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M4" s="4" t="e">
+        <f t="shared" ref="M4:M49" si="3">(PERCENTRANK(F$3:F$49,F4))*100</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="6"/>
-      <c r="G5" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H5" s="4" t="e">
+      <c r="I5" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J5" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="I5" s="4" t="e">
+      <c r="K5" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L5" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M5" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="6"/>
-      <c r="G6" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H6" s="4" t="e">
+      <c r="I6" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J6" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="I6" s="4" t="e">
+      <c r="K6" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L6" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M6" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="6"/>
-      <c r="G7" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H7" s="4" t="e">
+      <c r="I7" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J7" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="I7" s="4" t="e">
+      <c r="K7" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L7" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M7" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="6"/>
-      <c r="G8" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H8" s="4" t="e">
+      <c r="I8" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J8" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="I8" s="4" t="e">
+      <c r="K8" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L8" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M8" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="6"/>
-      <c r="G9" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H9" s="4" t="e">
+      <c r="I9" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J9" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="I9" s="4" t="e">
+      <c r="K9" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L9" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M9" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="6"/>
-      <c r="G10" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H10" s="4" t="e">
+      <c r="I10" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J10" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="I10" s="4" t="e">
+      <c r="K10" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L10" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M10" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="6"/>
-      <c r="G11" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H11" s="4" t="e">
+      <c r="I11" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J11" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="I11" s="4" t="e">
+      <c r="K11" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L11" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M11" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="6"/>
-      <c r="G12" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="4" t="e">
+      <c r="I12" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J12" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="I12" s="4" t="e">
+      <c r="K12" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L12" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M12" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="6"/>
-      <c r="G13" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H13" s="4" t="e">
+      <c r="I13" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J13" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="I13" s="4" t="e">
+      <c r="K13" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L13" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M13" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="6"/>
-      <c r="G14" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H14" s="4" t="e">
+      <c r="I14" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J14" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="I14" s="4" t="e">
+      <c r="K14" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L14" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M14" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="6"/>
-      <c r="G15" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H15" s="4" t="e">
+      <c r="I15" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J15" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="I15" s="4" t="e">
+      <c r="K15" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L15" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M15" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="6"/>
-      <c r="G16" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H16" s="4" t="e">
+      <c r="I16" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J16" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="I16" s="4" t="e">
+      <c r="K16" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L16" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M16" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="6"/>
-      <c r="G17" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H17" s="4" t="e">
+      <c r="I17" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J17" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="I17" s="4" t="e">
+      <c r="K17" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L17" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M17" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="6"/>
-      <c r="G18" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H18" s="4" t="e">
+      <c r="I18" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J18" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="I18" s="4" t="e">
+      <c r="K18" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L18" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M18" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="6"/>
-      <c r="G19" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H19" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I19" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K19" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L19" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M19" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="6"/>
-      <c r="G20" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H20" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I20" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K20" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L20" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M20" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="6"/>
-      <c r="G21" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H21" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I21" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K21" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L21" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M21" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="6"/>
-      <c r="G22" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H22" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I22" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K22" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L22" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M22" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="6"/>
-      <c r="G23" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H23" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I23" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K23" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L23" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M23" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="6"/>
-      <c r="G24" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H24" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I24" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K24" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L24" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M24" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="6"/>
-      <c r="G25" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H25" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I25" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K25" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L25" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M25" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="6"/>
-      <c r="G26" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H26" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I26" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K26" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L26" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M26" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="6"/>
-      <c r="G27" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H27" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I27" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K27" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L27" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M27" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="6"/>
-      <c r="G28" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H28" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I28" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K28" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L28" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M28" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="6"/>
-      <c r="G29" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H29" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I29" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K29" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L29" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M29" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="6"/>
-      <c r="G30" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H30" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I30" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K30" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L30" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M30" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="6"/>
-      <c r="G31" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H31" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I31" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K31" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L31" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M31" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="6"/>
-      <c r="G32" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H32" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I32" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K32" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L32" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M32" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="6"/>
-      <c r="G33" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H33" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I33" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K33" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L33" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M33" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="6"/>
-      <c r="G34" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H34" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I34" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K34" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L34" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M34" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="6"/>
-      <c r="G35" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H35" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I35" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K35" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L35" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M35" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="6"/>
-      <c r="G36" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H36" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I36" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K36" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L36" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M36" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="6"/>
-      <c r="G37" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H37" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I37" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K37" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L37" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M37" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="6"/>
-      <c r="G38" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H38" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I38" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K38" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L38" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M38" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="6"/>
-      <c r="G39" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H39" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I39" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K39" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L39" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M39" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="6"/>
-      <c r="G40" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H40" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I40" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K40" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L40" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M40" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="6"/>
-      <c r="G41" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H41" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I41" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K41" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L41" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M41" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="6"/>
-      <c r="G42" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H42" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I42" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K42" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L42" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M42" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="6"/>
-      <c r="G43" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H43" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I43" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K43" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L43" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M43" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="6"/>
-      <c r="G44" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H44" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I44" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K44" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L44" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M44" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="6"/>
-      <c r="G45" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H45" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I45" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K45" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L45" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M45" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="6"/>
-      <c r="G46" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H46" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I46" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K46" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L46" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M46" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="6"/>
-      <c r="G47" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H47" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I47" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K47" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L47" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M47" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="6"/>
-      <c r="G48" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H48" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I48" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K48" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L48" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M48" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="6"/>
-      <c r="G49" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H49" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
       <c r="I49" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K49" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L49" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M49" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="6"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="6"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="6"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="6"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="6"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="6"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="6"/>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="6"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="6"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="6"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="6"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="6"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="6"/>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="6"/>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="6"/>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="6"/>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="6"/>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="6"/>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="6"/>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="6"/>
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="6"/>
-      <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="6"/>
-      <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="6"/>
-      <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="6"/>
-      <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="6"/>
-      <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="6"/>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="6"/>
-      <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="6"/>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="6"/>
-      <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="6"/>
-      <c r="G79" s="2"/>
+      <c r="I79" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I2" xr:uid="{ABC38280-09A5-405D-93E7-135B8E0A1F5F}"/>
+  <autoFilter ref="A2:K2" xr:uid="{ABC38280-09A5-405D-93E7-135B8E0A1F5F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B49">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C49">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D49">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I49">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J49">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K49">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L49">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -16306,7 +17079,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C49">
+  <conditionalFormatting sqref="M3:M49">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -16318,19 +17091,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D49">
+  <conditionalFormatting sqref="E3:E78">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color theme="0"/>
         <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G49">
+  <conditionalFormatting sqref="F3:F78">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -16342,7 +17115,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H49">
+  <conditionalFormatting sqref="L3:L78">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -16354,7 +17127,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I49">
+  <conditionalFormatting sqref="M3:M80">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -16446,7 +17219,12 @@
       <c r="U1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -16496,6 +17274,14 @@
         <f>S2/T2</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="V2" s="9" t="e">
+        <f>100*Q2/(F2+0.44*J2+Q2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W2" s="9" t="e">
+        <f>IF(V2=0,0,S2/V2)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -16528,6 +17314,14 @@
         <f t="shared" ref="U3:U13" si="2">S3/T3</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="V3" s="9" t="e">
+        <f t="shared" ref="V3:V13" si="3">100*Q3/(F3+0.44*J3+Q3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W3" s="9" t="e">
+        <f t="shared" ref="W3:W13" si="4">IF(V3=0,0,S3/V3)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -16560,6 +17354,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V4" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W4" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -16592,6 +17394,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V5" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W5" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -16624,6 +17434,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V6" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W6" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -16656,6 +17474,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V7" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W7" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S8" s="9" t="e">
@@ -16670,6 +17496,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V8" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S9" s="9" t="e">
@@ -16684,6 +17518,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V9" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S10" s="9" t="e">
@@ -16698,6 +17540,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V10" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S11" s="9" t="e">
@@ -16712,6 +17562,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V11" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S12" s="9" t="e">
@@ -16726,6 +17584,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V12" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S13" s="9" t="e">
@@ -16740,6 +17606,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V13" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -16750,67 +17624,67 @@
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:R15" si="3">SUM(C2:C13)</f>
+        <f t="shared" ref="C15:R15" si="5">SUM(C2:C13)</f>
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16899,7 +17773,12 @@
       <c r="U1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -16949,6 +17828,14 @@
         <f>S2/T2</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="V2" s="9" t="e">
+        <f>100*Q2/(F2+0.44*J2+Q2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W2" s="9" t="e">
+        <f>IF(V2=0,0,S2/V2)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -16981,6 +17868,14 @@
         <f t="shared" ref="U3:U13" si="2">S3/T3</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="V3" s="9" t="e">
+        <f t="shared" ref="V3:V13" si="3">100*Q3/(F3+0.44*J3+Q3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W3" s="9" t="e">
+        <f t="shared" ref="W3:W13" si="4">IF(V3=0,0,S3/V3)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -17013,6 +17908,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V4" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W4" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -17045,6 +17948,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V5" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W5" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -17077,6 +17988,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V6" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W6" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -17109,6 +18028,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V7" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W7" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S8" s="9" t="e">
@@ -17123,6 +18050,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V8" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S9" s="9" t="e">
@@ -17137,6 +18072,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V9" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S10" s="9" t="e">
@@ -17151,6 +18094,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V10" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S11" s="9" t="e">
@@ -17165,6 +18116,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V11" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S12" s="9" t="e">
@@ -17179,6 +18138,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V12" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S13" s="9" t="e">
@@ -17193,6 +18160,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V13" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -17203,67 +18178,67 @@
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:R15" si="3">SUM(C2:C13)</f>
+        <f t="shared" ref="C15:R15" si="5">SUM(C2:C13)</f>
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17352,7 +18327,12 @@
       <c r="U1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -17402,6 +18382,14 @@
         <f>S2/T2</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="V2" s="9" t="e">
+        <f>100*Q2/(F2+0.44*J2+Q2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W2" s="9" t="e">
+        <f>IF(V2=0,0,S2/V2)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -17434,6 +18422,14 @@
         <f t="shared" ref="U3:U13" si="2">S3/T3</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="V3" s="9" t="e">
+        <f t="shared" ref="V3:V13" si="3">100*Q3/(F3+0.44*J3+Q3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W3" s="9" t="e">
+        <f t="shared" ref="W3:W13" si="4">IF(V3=0,0,S3/V3)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -17466,6 +18462,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V4" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W4" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -17498,6 +18502,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V5" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W5" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -17530,6 +18542,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V6" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W6" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -17562,6 +18582,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V7" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W7" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S8" s="9" t="e">
@@ -17576,6 +18604,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V8" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S9" s="9" t="e">
@@ -17590,6 +18626,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V9" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S10" s="9" t="e">
@@ -17604,6 +18648,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V10" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S11" s="9" t="e">
@@ -17618,6 +18670,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V11" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S12" s="9" t="e">
@@ -17632,6 +18692,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V12" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S13" s="9" t="e">
@@ -17646,6 +18714,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V13" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -17656,67 +18732,67 @@
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:R15" si="3">SUM(C2:C13)</f>
+        <f t="shared" ref="C15:R15" si="5">SUM(C2:C13)</f>
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17805,7 +18881,12 @@
       <c r="U1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -17855,6 +18936,14 @@
         <f>S2/T2</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="V2" s="9" t="e">
+        <f>100*Q2/(F2+0.44*J2+Q2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W2" s="9" t="e">
+        <f>IF(V2=0,0,S2/V2)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -17887,6 +18976,14 @@
         <f t="shared" ref="U3:U13" si="2">S3/T3</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="V3" s="9" t="e">
+        <f t="shared" ref="V3:V13" si="3">100*Q3/(F3+0.44*J3+Q3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W3" s="9" t="e">
+        <f t="shared" ref="W3:W13" si="4">IF(V3=0,0,S3/V3)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -17919,6 +19016,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V4" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W4" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -17951,6 +19056,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V5" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W5" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -17983,6 +19096,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V6" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W6" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -18015,6 +19136,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V7" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W7" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S8" s="9" t="e">
@@ -18029,6 +19158,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V8" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S9" s="9" t="e">
@@ -18043,6 +19180,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V9" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S10" s="9" t="e">
@@ -18057,6 +19202,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V10" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S11" s="9" t="e">
@@ -18071,6 +19224,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V11" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S12" s="9" t="e">
@@ -18085,6 +19246,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V12" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S13" s="9" t="e">
@@ -18099,6 +19268,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V13" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -18109,67 +19286,67 @@
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:R15" si="3">SUM(C2:C13)</f>
+        <f t="shared" ref="C15:R15" si="5">SUM(C2:C13)</f>
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -18258,7 +19435,12 @@
       <c r="U1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -18308,6 +19490,14 @@
         <f>S2/T2</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="V2" s="9" t="e">
+        <f>100*Q2/(F2+0.44*J2+Q2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W2" s="9" t="e">
+        <f>IF(V2=0,0,S2/V2)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -18340,6 +19530,14 @@
         <f t="shared" ref="U3:U13" si="2">S3/T3</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="V3" s="9" t="e">
+        <f t="shared" ref="V3:V13" si="3">100*Q3/(F3+0.44*J3+Q3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W3" s="9" t="e">
+        <f t="shared" ref="W3:W13" si="4">IF(V3=0,0,S3/V3)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -18372,6 +19570,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V4" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W4" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -18404,6 +19610,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V5" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W5" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -18436,6 +19650,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V6" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W6" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -18468,6 +19690,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V7" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W7" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S8" s="9" t="e">
@@ -18482,6 +19712,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V8" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S9" s="9" t="e">
@@ -18496,6 +19734,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V9" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S10" s="9" t="e">
@@ -18510,6 +19756,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V10" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S11" s="9" t="e">
@@ -18524,6 +19778,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V11" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S12" s="9" t="e">
@@ -18538,6 +19800,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V12" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S13" s="9" t="e">
@@ -18552,6 +19822,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V13" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -18562,67 +19840,67 @@
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:R15" si="3">SUM(C2:C13)</f>
+        <f t="shared" ref="C15:R15" si="5">SUM(C2:C13)</f>
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
